--- a/result/report.xlsx
+++ b/result/report.xlsx
@@ -124,32 +124,32 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:shape val="box"/>
-        <c:axId val="71529984"/>
-        <c:axId val="71531520"/>
+        <c:axId val="73242880"/>
+        <c:axId val="73244672"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="71529984"/>
+        <c:axId val="73242880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71531520"/>
+        <c:crossAx val="73244672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71531520"/>
+        <c:axId val="73244672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -157,7 +157,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71529984"/>
+        <c:crossAx val="73242880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -170,7 +170,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" footer="0.30000000000000004" header="0.30000000000000004" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011"/>
+    <c:pageMargins b="0.75000000000000033" footer="0.30000000000000016" header="0.30000000000000016" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -514,10 +514,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
   </sheetData>
